--- a/Analiza zebranych wyników.xlsx
+++ b/Analiza zebranych wyników.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iwoch\OneDrive\Pulpit\C_CPP_STUFF\Algorithms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iwoch\OneDrive\Pulpit\C_CPP_STUFF\Sorting-algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D801F00-A9F3-418A-9576-FA222C2E793A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEF9C8F-3FCA-4268-B9DD-23CDBF32765B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{17E1DF53-B9D8-45AE-84D9-425239A0C258}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{17E1DF53-B9D8-45AE-84D9-425239A0C258}"/>
   </bookViews>
   <sheets>
     <sheet name="MergeSort" sheetId="1" r:id="rId1"/>
@@ -1707,938 +1707,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:v>przybliżenie - 0%</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>MergeSort!$A$5:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>MergeSort!$K$5:$K$13</c:f>
-              <c:numCache>
-                <c:formatCode>#\ ##0.000000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>532761.02455464413</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>561504.03815983131</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>602775.36831966264</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>990225.99546441773</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1527964.9109288354</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6402676.0933052208</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13030321.386610441</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>71779482.319662645</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>150558496.63932529</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-08F6-480A-AEA8-8FFD752B58EF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:v>przybliżenie - 25%</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>MergeSort!$A$5:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>MergeSort!$L$5:$L$13</c:f>
-              <c:numCache>
-                <c:formatCode>#\ ##0.000000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>521586.3960395109</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>547796.93029633164</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>585431.94059266336</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>938745.20395108894</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1429105.2079021779</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5874317.0493886117</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11918016.098777223</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>65490926.59266334</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>137328907.18532667</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-08F6-480A-AEA8-8FFD752B58EF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:v>przybliżenie - 50%</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>MergeSort!$A$5:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>MergeSort!$M$5:$M$13</c:f>
-              <c:numCache>
-                <c:formatCode>#\ ##0.000000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>442359.53326206596</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>466059.23146549473</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500088.99893098947</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>819556.64620659663</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1262942.6524131931</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5282325.7775824573</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10747069.155164914</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>59187966.930989489</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>124144233.86197898</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-08F6-480A-AEA8-8FFD752B58EF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:v>przybliżenie - 75%</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>MergeSort!$A$5:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>MergeSort!$N$5:$N$13</c:f>
-              <c:numCache>
-                <c:formatCode>#\ ##0.000000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>376438.68902089336</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>397593.17315670045</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>427968.33531340084</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>713126.95708933892</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1108895.804178678</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4696619.826116736</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9574480.5522334725</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>52813098.813400827</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>110793428.62680165</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-08F6-480A-AEA8-8FFD752B58EF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
-          <c:tx>
-            <c:v>przybliżenie - 95%</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>MergeSort!$A$5:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>MergeSort!$O$5:$O$13</c:f>
-              <c:numCache>
-                <c:formatCode>#\ ##0.000000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>374769.36944622523</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>393852.9438466893</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>421254.54169337859</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>678497.67462252406</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1035522.8892450482</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4272028.1077815518</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8672372.6155631021</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>47678163.693378612</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>99982532.386757225</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000012-08F6-480A-AEA8-8FFD752B58EF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="13"/>
-          <c:tx>
-            <c:v>przybliżenie - 99%</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>MergeSort!$A$5:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>MergeSort!$P$5:$P$13</c:f>
-              <c:numCache>
-                <c:formatCode>#\ ##0.000000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>369758.54052451387</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>388440.77843385388</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>415266.10786770779</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>667099.2974513853</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1016616.1049027704</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4185056.105642315</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8492859.3112846296</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>46678340.367707774</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>97882723.735415548</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000013-08F6-480A-AEA8-8FFD752B58EF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="14"/>
-          <c:order val="14"/>
-          <c:tx>
-            <c:v>przybliżenie - 99.7%</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>MergeSort!$A$5:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>MergeSort!$Q$5:$Q$13</c:f>
-              <c:numCache>
-                <c:formatCode>#\ ##0.000000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>396859.53295046015</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>415518.73762845137</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>442310.99425690272</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>693833.700046018</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1042919.5900920359</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4207453.2380752247</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8509945.3761504479</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>46648347.756902695</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>97789601.513805389</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000014-08F6-480A-AEA8-8FFD752B58EF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="15"/>
-          <c:order val="15"/>
-          <c:tx>
-            <c:v>przybliżenie - elementy posortowane w odwrotnej kolejności</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>MergeSort!$A$5:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>MergeSort!$R$5:$R$13</c:f>
-              <c:numCache>
-                <c:formatCode>#\ ##0.000000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>371851.1045213794</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>390502.09941034531</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>417282.56782069069</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>668694.60713793791</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1017626.9042758757</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4180768.2017242229</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8481367.3034484461</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>46602989.320690677</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>97721741.641381353</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000015-08F6-480A-AEA8-8FFD752B58EF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2649,12 +1717,1062 @@
         </c:dLbls>
         <c:axId val="203953759"/>
         <c:axId val="24680791"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:v>przybliżenie - 0%</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>MergeSort!$A$5:$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>MergeSort!$K$5:$K$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#\ ##0.000000</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>532761.02455464413</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>561504.03815983131</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>602775.36831966264</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>990225.99546441773</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1527964.9109288354</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6402676.0933052208</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>13030321.386610441</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>71779482.319662645</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>150558496.63932529</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000E-08F6-480A-AEA8-8FFD752B58EF}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:v>przybliżenie - 25%</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>MergeSort!$A$5:$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>MergeSort!$L$5:$L$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#\ ##0.000000</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>521586.3960395109</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>547796.93029633164</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>585431.94059266336</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>938745.20395108894</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1429105.2079021779</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5874317.0493886117</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>11918016.098777223</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>65490926.59266334</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>137328907.18532667</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000F-08F6-480A-AEA8-8FFD752B58EF}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="10"/>
+                <c:order val="10"/>
+                <c:tx>
+                  <c:v>przybliżenie - 50%</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>MergeSort!$A$5:$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>MergeSort!$M$5:$M$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#\ ##0.000000</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>442359.53326206596</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>466059.23146549473</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>500088.99893098947</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>819556.64620659663</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1262942.6524131931</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5282325.7775824573</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>10747069.155164914</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>59187966.930989489</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>124144233.86197898</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000010-08F6-480A-AEA8-8FFD752B58EF}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="11"/>
+                <c:order val="11"/>
+                <c:tx>
+                  <c:v>przybliżenie - 75%</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>MergeSort!$A$5:$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>MergeSort!$N$5:$N$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#\ ##0.000000</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>376438.68902089336</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>397593.17315670045</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>427968.33531340084</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>713126.95708933892</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1108895.804178678</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4696619.826116736</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>9574480.5522334725</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>52813098.813400827</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>110793428.62680165</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000011-08F6-480A-AEA8-8FFD752B58EF}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="12"/>
+                <c:order val="12"/>
+                <c:tx>
+                  <c:v>przybliżenie - 95%</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>MergeSort!$A$5:$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>MergeSort!$O$5:$O$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#\ ##0.000000</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>374769.36944622523</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>393852.9438466893</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>421254.54169337859</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>678497.67462252406</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1035522.8892450482</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4272028.1077815518</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>8672372.6155631021</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>47678163.693378612</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>99982532.386757225</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000012-08F6-480A-AEA8-8FFD752B58EF}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="13"/>
+                <c:order val="13"/>
+                <c:tx>
+                  <c:v>przybliżenie - 99%</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>MergeSort!$A$5:$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>MergeSort!$P$5:$P$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#\ ##0.000000</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>369758.54052451387</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>388440.77843385388</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>415266.10786770779</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>667099.2974513853</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1016616.1049027704</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4185056.105642315</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>8492859.3112846296</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>46678340.367707774</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>97882723.735415548</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000013-08F6-480A-AEA8-8FFD752B58EF}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="14"/>
+                <c:order val="14"/>
+                <c:tx>
+                  <c:v>przybliżenie - 99.7%</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>MergeSort!$A$5:$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>MergeSort!$Q$5:$Q$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#\ ##0.000000</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>396859.53295046015</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>415518.73762845137</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>442310.99425690272</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>693833.700046018</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1042919.5900920359</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4207453.2380752247</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>8509945.3761504479</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>46648347.756902695</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>97789601.513805389</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000014-08F6-480A-AEA8-8FFD752B58EF}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="15"/>
+                <c:order val="15"/>
+                <c:tx>
+                  <c:v>przybliżenie - elementy posortowane w odwrotnej kolejności</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>MergeSort!$A$5:$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>MergeSort!$R$5:$R$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#\ ##0.000000</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>371851.1045213794</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>390502.09941034531</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>417282.56782069069</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>668694.60713793791</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1017626.9042758757</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4180768.2017242229</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>8481367.3034484461</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>46602989.320690677</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>97721741.641381353</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000015-08F6-480A-AEA8-8FFD752B58EF}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="203953759"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
           <c:max val="1000000"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2828,7 +2946,10 @@
       <c:valAx>
         <c:axId val="24680791"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="150000000"/>
+          <c:min val="10000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2942,7 +3063,7 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
-          <c:builtInUnit val="millions"/>
+          <c:builtInUnit val="thousands"/>
           <c:dispUnitsLbl>
             <c:tx>
               <c:rich>
@@ -2963,9 +3084,17 @@
                     </a:defRPr>
                   </a:pPr>
                   <a:r>
-                    <a:rPr lang="pl-PL"/>
-                    <a:t>milionów</a:t>
+                    <a:rPr lang="pl-PL" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:sysClr>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>tysięcy</a:t>
                   </a:r>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:rich>
             </c:tx>
@@ -3528,8 +3657,10 @@
       <c:valAx>
         <c:axId val="1636049024"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
           <c:max val="1000000"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3642,7 +3773,6 @@
         <c:crossAx val="1636046144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="100000"/>
         <c:dispUnits>
           <c:builtInUnit val="thousands"/>
           <c:dispUnitsLbl>
@@ -3704,7 +3834,10 @@
       <c:valAx>
         <c:axId val="1636046144"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="2000000000"/>
+          <c:min val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3818,7 +3951,7 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
-          <c:builtInUnit val="millions"/>
+          <c:builtInUnit val="thousands"/>
           <c:dispUnitsLbl>
             <c:tx>
               <c:rich>
@@ -3839,9 +3972,17 @@
                     </a:defRPr>
                   </a:pPr>
                   <a:r>
-                    <a:rPr lang="pl-PL"/>
-                    <a:t>milionów</a:t>
+                    <a:rPr lang="pl-PL" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:sysClr>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>tysięcy</a:t>
                   </a:r>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:rich>
             </c:tx>
@@ -4404,8 +4545,10 @@
       <c:valAx>
         <c:axId val="1636049024"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
           <c:max val="1000000"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4518,7 +4661,6 @@
         <c:crossAx val="1636046144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="100000"/>
         <c:dispUnits>
           <c:builtInUnit val="thousands"/>
           <c:dispUnitsLbl>
@@ -4580,7 +4722,10 @@
       <c:valAx>
         <c:axId val="1636046144"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="130000000"/>
+          <c:min val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4694,7 +4839,7 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
-          <c:builtInUnit val="millions"/>
+          <c:builtInUnit val="thousands"/>
           <c:dispUnitsLbl>
             <c:tx>
               <c:rich>
@@ -4715,8 +4860,15 @@
                     </a:defRPr>
                   </a:pPr>
                   <a:r>
-                    <a:rPr lang="pl-PL"/>
-                    <a:t>milionów</a:t>
+                    <a:rPr lang="pl-PL" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:sysClr>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>tysięcy</a:t>
                   </a:r>
                 </a:p>
               </c:rich>
@@ -5280,8 +5432,10 @@
       <c:valAx>
         <c:axId val="1636049024"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
           <c:max val="1000000"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5394,7 +5548,6 @@
         <c:crossAx val="1636046144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="100000"/>
         <c:dispUnits>
           <c:builtInUnit val="thousands"/>
           <c:dispUnitsLbl>
@@ -5456,7 +5609,9 @@
       <c:valAx>
         <c:axId val="1636046144"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:min val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5570,7 +5725,7 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
-          <c:builtInUnit val="millions"/>
+          <c:builtInUnit val="thousands"/>
           <c:dispUnitsLbl>
             <c:tx>
               <c:rich>
@@ -5591,8 +5746,15 @@
                     </a:defRPr>
                   </a:pPr>
                   <a:r>
-                    <a:rPr lang="pl-PL"/>
-                    <a:t>milionów</a:t>
+                    <a:rPr lang="pl-PL" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:sysClr>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>tysięcy</a:t>
                   </a:r>
                 </a:p>
               </c:rich>
@@ -6156,8 +6318,10 @@
       <c:valAx>
         <c:axId val="1636049024"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
           <c:max val="1000000"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -6270,7 +6434,6 @@
         <c:crossAx val="1636046144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="100000"/>
         <c:dispUnits>
           <c:builtInUnit val="thousands"/>
           <c:dispUnitsLbl>
@@ -6332,7 +6495,10 @@
       <c:valAx>
         <c:axId val="1636046144"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="130000000"/>
+          <c:min val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6446,7 +6612,7 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
-          <c:builtInUnit val="millions"/>
+          <c:builtInUnit val="thousands"/>
           <c:dispUnitsLbl>
             <c:tx>
               <c:rich>
@@ -6467,9 +6633,17 @@
                     </a:defRPr>
                   </a:pPr>
                   <a:r>
-                    <a:rPr lang="pl-PL"/>
-                    <a:t>milionów</a:t>
+                    <a:rPr lang="pl-PL" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:sysClr>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>tysięcy</a:t>
                   </a:r>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:rich>
             </c:tx>
@@ -7032,8 +7206,10 @@
       <c:valAx>
         <c:axId val="1636049024"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
           <c:max val="1000000"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -7146,7 +7322,6 @@
         <c:crossAx val="1636046144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="100000"/>
         <c:dispUnits>
           <c:builtInUnit val="thousands"/>
           <c:dispUnitsLbl>
@@ -7208,7 +7383,9 @@
       <c:valAx>
         <c:axId val="1636046144"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7322,7 +7499,7 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
-          <c:builtInUnit val="millions"/>
+          <c:builtInUnit val="thousands"/>
           <c:dispUnitsLbl>
             <c:tx>
               <c:rich>
@@ -7343,9 +7520,17 @@
                     </a:defRPr>
                   </a:pPr>
                   <a:r>
-                    <a:rPr lang="pl-PL"/>
-                    <a:t>milionów</a:t>
+                    <a:rPr lang="pl-PL" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:sysClr>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>tysięcy</a:t>
                   </a:r>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:rich>
             </c:tx>
@@ -14166,938 +14351,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:v>przybliżenie - 0%</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>QuickSort!$A$5:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>QuickSort!$K$5:$K$13</c:f>
-              <c:numCache>
-                <c:formatCode>#\ ##0.000000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>447219.17853140226</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>464859.05198551679</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>490187.67797103361</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>727969.98314022389</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1057985.7062804475</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4049644.4642527979</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8117096.3285055961</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44172040.971033573</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>92519505.942067146</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-1159-4830-8F91-C78D05956C1B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:v>przybliżenie - 25%</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>QuickSort!$A$5:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>QuickSort!$L$5:$L$13</c:f>
-              <c:numCache>
-                <c:formatCode>#\ ##0.000000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>436820.85261612938</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>454096.76512097049</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>478902.78924194101</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>711778.96661294007</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1034985.5232258801</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3964917.8201617505</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7948446.5403235015</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43259474.741941005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90609393.48388201</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-1159-4830-8F91-C78D05956C1B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:v>przybliżenie - 50%</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>QuickSort!$A$5:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>QuickSort!$M$5:$M$13</c:f>
-              <c:numCache>
-                <c:formatCode>#\,##0.000000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>-5411627.0444999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-5278460.4225000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-5110951.8449999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-3728871.2249999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1896240.4499999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16966005.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>51046813.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>743813275.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2660071353</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-1159-4830-8F91-C78D05956C1B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:v>przybliżenie - 75%</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>QuickSort!$A$5:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>QuickSort!$N$5:$N$13</c:f>
-              <c:numCache>
-                <c:formatCode>#\,##0.000000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>-8275662.6571000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-8040092.6854999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-7745169.8710000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-5367373.3549999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2349092.709999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>23638552.450000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60726608.900000006</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>541571060.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1602976625</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-1159-4830-8F91-C78D05956C1B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
-          <c:tx>
-            <c:v>przybliżenie - 95%</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>QuickSort!$A$5:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>QuickSort!$O$5:$O$13</c:f>
-              <c:numCache>
-                <c:formatCode>#\,##0.000000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>-244674.698</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-223819.29</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-197718.08000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12369.600000000035</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>278174.20000000007</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2532411</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5669707</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43548075</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>122846035</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-1159-4830-8F91-C78D05956C1B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="13"/>
-          <c:tx>
-            <c:v>przybliżenie - 99%</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>QuickSort!$A$5:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>QuickSort!$P$5:$P$13</c:f>
-              <c:numCache>
-                <c:formatCode>#\ ##0.000000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>85004.179977667183</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>96505.811832503925</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>113020.69966500785</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>268060.61776671896</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>483238.99553343788</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2433874.1720839865</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5085952.9441679735</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28594664.665007837</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>60118402.330015674</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-1159-4830-8F91-C78D05956C1B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="14"/>
-          <c:order val="14"/>
-          <c:tx>
-            <c:v>przybliżenie - 99.7%</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>QuickSort!$A$5:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>QuickSort!$Q$5:$Q$13</c:f>
-              <c:numCache>
-                <c:formatCode>#\ ##0.000000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>634238.99673655187</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>657573.52352413931</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>691078.95104827872</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1005624.1536551912</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1442178.3473103824</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5399629.72068989</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10780170.84137978</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>58474678.048278682</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>122430081.09655736</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-1159-4830-8F91-C78D05956C1B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="15"/>
-          <c:order val="15"/>
-          <c:tx>
-            <c:v>przybliżenie - elementy posortowane w odwrotnej kolejności</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>QuickSort!$A$5:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>QuickSort!$R$5:$R$13</c:f>
-              <c:numCache>
-                <c:formatCode>#\ ##0.000000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>91122.214640332299</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>95336.310802492255</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>101387.21960498451</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>158192.4740332301</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>237031.92806646015</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>951727.40041537583</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1923425.6008307517</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10536809.604984511</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>22086828.209969021</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-1159-4830-8F91-C78D05956C1B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -15108,12 +14361,1062 @@
         </c:dLbls>
         <c:axId val="203953759"/>
         <c:axId val="24680791"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:v>przybliżenie - 0%</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>QuickSort!$A$5:$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>QuickSort!$K$5:$K$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#\ ##0.000000</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>447219.17853140226</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>464859.05198551679</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>490187.67797103361</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>727969.98314022389</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1057985.7062804475</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4049644.4642527979</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>8117096.3285055961</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>44172040.971033573</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>92519505.942067146</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-1159-4830-8F91-C78D05956C1B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:v>przybliżenie - 25%</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>QuickSort!$A$5:$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>QuickSort!$L$5:$L$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#\ ##0.000000</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>436820.85261612938</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>454096.76512097049</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>478902.78924194101</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>711778.96661294007</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1034985.5232258801</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3964917.8201617505</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7948446.5403235015</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>43259474.741941005</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>90609393.48388201</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-1159-4830-8F91-C78D05956C1B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="10"/>
+                <c:order val="10"/>
+                <c:tx>
+                  <c:v>przybliżenie - 50%</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>QuickSort!$A$5:$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>QuickSort!$M$5:$M$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#\ ##0.000000</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>-5411627.0444999998</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-5278460.4225000003</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-5110951.8449999997</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-3728871.2249999996</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-1896240.4499999997</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>16966005.75</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>51046813.5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>743813275.5</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2660071353</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000A-1159-4830-8F91-C78D05956C1B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="11"/>
+                <c:order val="11"/>
+                <c:tx>
+                  <c:v>przybliżenie - 75%</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>QuickSort!$A$5:$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>QuickSort!$N$5:$N$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#\ ##0.000000</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>-8275662.6571000004</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-8040092.6854999997</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-7745169.8710000003</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-5367373.3549999995</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-2349092.709999999</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>23638552.450000003</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>60726608.900000006</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>541571060.5</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1602976625</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000B-1159-4830-8F91-C78D05956C1B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="12"/>
+                <c:order val="12"/>
+                <c:tx>
+                  <c:v>przybliżenie - 95%</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>QuickSort!$A$5:$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>QuickSort!$O$5:$O$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#\ ##0.000000</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>-244674.698</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-223819.29</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-197718.08000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>12369.600000000035</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>278174.20000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2532411</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>5669707</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>43548075</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>122846035</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000C-1159-4830-8F91-C78D05956C1B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="13"/>
+                <c:order val="13"/>
+                <c:tx>
+                  <c:v>przybliżenie - 99%</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>QuickSort!$A$5:$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>QuickSort!$P$5:$P$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#\ ##0.000000</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>85004.179977667183</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>96505.811832503925</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>113020.69966500785</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>268060.61776671896</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>483238.99553343788</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2433874.1720839865</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>5085952.9441679735</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>28594664.665007837</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>60118402.330015674</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000D-1159-4830-8F91-C78D05956C1B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="14"/>
+                <c:order val="14"/>
+                <c:tx>
+                  <c:v>przybliżenie - 99.7%</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>QuickSort!$A$5:$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>QuickSort!$Q$5:$Q$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#\ ##0.000000</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>634238.99673655187</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>657573.52352413931</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>691078.95104827872</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1005624.1536551912</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1442178.3473103824</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5399629.72068989</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>10780170.84137978</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>58474678.048278682</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>122430081.09655736</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000E-1159-4830-8F91-C78D05956C1B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="15"/>
+                <c:order val="15"/>
+                <c:tx>
+                  <c:v>przybliżenie - elementy posortowane w odwrotnej kolejności</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>QuickSort!$A$5:$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>QuickSort!$R$5:$R$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#\ ##0.000000</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>91122.214640332299</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>95336.310802492255</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>101387.21960498451</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>158192.4740332301</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>237031.92806646015</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>951727.40041537583</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1923425.6008307517</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>10536809.604984511</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>22086828.209969021</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000F-1159-4830-8F91-C78D05956C1B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="203953759"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
           <c:max val="1000000"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -15287,7 +15590,10 @@
       <c:valAx>
         <c:axId val="24680791"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="3000000000"/>
+          <c:min val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -15401,7 +15707,7 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
-          <c:builtInUnit val="millions"/>
+          <c:builtInUnit val="thousands"/>
           <c:dispUnitsLbl>
             <c:tx>
               <c:rich>
@@ -15422,9 +15728,17 @@
                     </a:defRPr>
                   </a:pPr>
                   <a:r>
-                    <a:rPr lang="pl-PL"/>
-                    <a:t>milionów</a:t>
+                    <a:rPr lang="pl-PL" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:sysClr>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>tysięcy</a:t>
                   </a:r>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:rich>
             </c:tx>
@@ -16962,938 +17276,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:v>przybliżenie - 0%</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>IntroSort!$A$5:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>IntroSort!$K$5:$K$13</c:f>
-              <c:numCache>
-                <c:formatCode>#\,##0.000000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>287511.6749524434</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>302004.81264332531</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>322815.12428665068</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>518180.00024433783</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>789324.99048867554</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3247308.7405542224</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6589177.3811084442</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>36212364.786650665</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>75935238.57330133</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-B4A2-490E-95C7-501440537894}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:v>przybliżenie - 25%</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>IntroSort!$A$5:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>IntroSort!$L$5:$L$13</c:f>
-              <c:numCache>
-                <c:formatCode>#\,##0.000000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>248966.22978009598</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>263152.19535071979</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>283521.44670143962</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>474745.69800959737</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>740143.95601919456</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3146032.4251199663</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6417072.4502399322</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35412416.701439597</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>74293391.402879193</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-B4A2-490E-95C7-501440537894}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:v>przybliżenie - 50%</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>IntroSort!$A$5:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>IntroSort!$M$5:$M$13</c:f>
-              <c:numCache>
-                <c:formatCode>#\,##0.000000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>192844.37816905393</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>206404.72726790456</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>225875.67253580914</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>408666.72690539423</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>662360.63381078839</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2962146.8113174271</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6088930.4226348549</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>33805548.535809122</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>70971830.071618244</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-B4A2-490E-95C7-501440537894}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:v>przybliżenie - 75%</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>IntroSort!$A$5:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>IntroSort!$N$5:$N$13</c:f>
-              <c:numCache>
-                <c:formatCode>#\,##0.000000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>242643.02766114238</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>251701.12845856772</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>264707.41491713544</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>386808.97611423634</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>556272.53222847264</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2092493.6764279541</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4181136.152855908</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22695402.917135447</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>47521896.834270895</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-B4A2-490E-95C7-501440537894}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
-          <c:tx>
-            <c:v>przybliżenie - 95%</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>IntroSort!$A$5:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>IntroSort!$O$5:$O$13</c:f>
-              <c:numCache>
-                <c:formatCode>#\,##0.000000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>149524.00901571999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>154828.93411789983</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>162446.13523579965</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>233955.56657199765</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>333202.80314399523</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1232898.9196499703</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2456123.5392999407</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13299102.735799644</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>27838871.471599288</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-B4A2-490E-95C7-501440537894}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="13"/>
-          <c:tx>
-            <c:v>przybliżenie - 99%</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>IntroSort!$A$5:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>IntroSort!$P$5:$P$13</c:f>
-              <c:numCache>
-                <c:formatCode>#\,##0.000000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>309930.69940483017</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>325619.44203622633</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>348146.49107245263</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>559627.90548301768</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>853140.8809660353</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3513894.9060377204</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7131449.512075441</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>39198388.572452642</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>82198183.144905284</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-B4A2-490E-95C7-501440537894}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="14"/>
-          <c:order val="14"/>
-          <c:tx>
-            <c:v>przybliżenie - 99.7%</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>IntroSort!$A$5:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>IntroSort!$Q$5:$Q$13</c:f>
-              <c:numCache>
-                <c:formatCode>#\,##0.000000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>173070.59882600838</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>192414.12569506277</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>220188.98239012557</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>480936.22760083713</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>842824.76520167419</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4123416.9825104633</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8583702.0650209263</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>48120821.890125558</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>101137669.78025112</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-B4A2-490E-95C7-501440537894}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="15"/>
-          <c:order val="15"/>
-          <c:tx>
-            <c:v>przybliżenie - elementy posortowane w odwrotnej kolejności</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>IntroSort!$A$5:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>IntroSort!$R$5:$R$13</c:f>
-              <c:numCache>
-                <c:formatCode>#\,##0.000000</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>6658.1894892891141</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9257.1146696683591</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12988.842339336717</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>48021.883928911455</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>96643.8978578229</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>537412.21161139314</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1136679.7232227861</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6448741.8393367166</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13571890.678673433</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-B4A2-490E-95C7-501440537894}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -17904,12 +17286,1062 @@
         </c:dLbls>
         <c:axId val="203953759"/>
         <c:axId val="24680791"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:v>przybliżenie - 0%</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>IntroSort!$A$5:$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>IntroSort!$K$5:$K$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#\ ##0.000000</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>287511.6749524434</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>302004.81264332531</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>322815.12428665068</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>518180.00024433783</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>789324.99048867554</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3247308.7405542224</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6589177.3811084442</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>36212364.786650665</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>75935238.57330133</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-B4A2-490E-95C7-501440537894}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:v>przybliżenie - 25%</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>IntroSort!$A$5:$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>IntroSort!$L$5:$L$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#\ ##0.000000</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>248966.22978009598</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>263152.19535071979</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>283521.44670143962</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>474745.69800959737</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>740143.95601919456</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3146032.4251199663</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6417072.4502399322</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>35412416.701439597</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>74293391.402879193</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-B4A2-490E-95C7-501440537894}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="10"/>
+                <c:order val="10"/>
+                <c:tx>
+                  <c:v>przybliżenie - 50%</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>IntroSort!$A$5:$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>IntroSort!$M$5:$M$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#\ ##0.000000</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>192844.37816905393</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>206404.72726790456</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>225875.67253580914</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>408666.72690539423</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>662360.63381078839</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2962146.8113174271</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6088930.4226348549</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>33805548.535809122</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>70971830.071618244</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000A-B4A2-490E-95C7-501440537894}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="11"/>
+                <c:order val="11"/>
+                <c:tx>
+                  <c:v>przybliżenie - 75%</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>IntroSort!$A$5:$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>IntroSort!$N$5:$N$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#\ ##0.000000</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>242643.02766114238</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>251701.12845856772</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>264707.41491713544</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>386808.97611423634</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>556272.53222847264</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2092493.6764279541</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4181136.152855908</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>22695402.917135447</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>47521896.834270895</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000B-B4A2-490E-95C7-501440537894}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="12"/>
+                <c:order val="12"/>
+                <c:tx>
+                  <c:v>przybliżenie - 95%</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>IntroSort!$A$5:$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>IntroSort!$O$5:$O$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#\ ##0.000000</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>149524.00901571999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>154828.93411789983</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>162446.13523579965</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>233955.56657199765</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>333202.80314399523</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1232898.9196499703</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2456123.5392999407</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>13299102.735799644</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>27838871.471599288</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000C-B4A2-490E-95C7-501440537894}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="13"/>
+                <c:order val="13"/>
+                <c:tx>
+                  <c:v>przybliżenie - 99%</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>IntroSort!$A$5:$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>IntroSort!$P$5:$P$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#\ ##0.000000</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>309930.69940483017</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>325619.44203622633</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>348146.49107245263</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>559627.90548301768</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>853140.8809660353</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3513894.9060377204</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7131449.512075441</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>39198388.572452642</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>82198183.144905284</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000D-B4A2-490E-95C7-501440537894}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="14"/>
+                <c:order val="14"/>
+                <c:tx>
+                  <c:v>przybliżenie - 99.7%</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>IntroSort!$A$5:$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>IntroSort!$Q$5:$Q$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#\ ##0.000000</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>173070.59882600838</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>192414.12569506277</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>220188.98239012557</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>480936.22760083713</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>842824.76520167419</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4123416.9825104633</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>8583702.0650209263</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>48120821.890125558</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>101137669.78025112</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000E-B4A2-490E-95C7-501440537894}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="15"/>
+                <c:order val="15"/>
+                <c:tx>
+                  <c:v>przybliżenie - elementy posortowane w odwrotnej kolejności</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>IntroSort!$A$5:$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>IntroSort!$R$5:$R$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#\ ##0.000000</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>6658.1894892891141</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>9257.1146696683591</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>12988.842339336717</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>48021.883928911455</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>96643.8978578229</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>537412.21161139314</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1136679.7232227861</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>6448741.8393367166</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>13571890.678673433</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000F-B4A2-490E-95C7-501440537894}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="203953759"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
           <c:max val="1000000"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -18083,7 +18515,10 @@
       <c:valAx>
         <c:axId val="24680791"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="110000000.00000001"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -18197,7 +18632,7 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
-          <c:builtInUnit val="millions"/>
+          <c:builtInUnit val="thousands"/>
           <c:dispUnitsLbl>
             <c:tx>
               <c:rich>
@@ -18218,9 +18653,17 @@
                     </a:defRPr>
                   </a:pPr>
                   <a:r>
-                    <a:rPr lang="pl-PL"/>
-                    <a:t>milionów</a:t>
+                    <a:rPr lang="pl-PL" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:sysClr>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>tysięcy</a:t>
                   </a:r>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:rich>
             </c:tx>
@@ -18783,8 +19226,10 @@
       <c:valAx>
         <c:axId val="1636049024"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
           <c:max val="1000000"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -18897,7 +19342,6 @@
         <c:crossAx val="1636046144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="100000"/>
         <c:dispUnits>
           <c:builtInUnit val="thousands"/>
           <c:dispUnitsLbl>
@@ -18959,7 +19403,10 @@
       <c:valAx>
         <c:axId val="1636046144"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="150000000"/>
+          <c:min val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -19073,7 +19520,7 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
-          <c:builtInUnit val="millions"/>
+          <c:builtInUnit val="thousands"/>
           <c:dispUnitsLbl>
             <c:tx>
               <c:rich>
@@ -19094,10 +19541,16 @@
                     </a:defRPr>
                   </a:pPr>
                   <a:r>
-                    <a:rPr lang="pl-PL"/>
-                    <a:t>milionów</a:t>
+                    <a:rPr lang="pl-PL" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:sysClr>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>tysięcy</a:t>
                   </a:r>
-                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:rich>
             </c:tx>
@@ -19660,8 +20113,9 @@
       <c:valAx>
         <c:axId val="1636049024"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="1000000"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -19774,7 +20228,6 @@
         <c:crossAx val="1636046144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="100000"/>
         <c:dispUnits>
           <c:builtInUnit val="thousands"/>
           <c:dispUnitsLbl>
@@ -19836,7 +20289,10 @@
       <c:valAx>
         <c:axId val="1636046144"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="140000000"/>
+          <c:min val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -19950,20 +20406,34 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
-          <c:builtInUnit val="millions"/>
+          <c:builtInUnit val="thousands"/>
           <c:dispUnitsLbl>
             <c:tx>
               <c:rich>
                 <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
                 <a:lstStyle/>
                 <a:p>
-                  <a:pPr>
+                  <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                    <a:lnSpc>
+                      <a:spcPct val="100000"/>
+                    </a:lnSpc>
+                    <a:spcBef>
+                      <a:spcPts val="0"/>
+                    </a:spcBef>
+                    <a:spcAft>
+                      <a:spcPts val="0"/>
+                    </a:spcAft>
+                    <a:buClrTx/>
+                    <a:buSzTx/>
+                    <a:buFontTx/>
+                    <a:buNone/>
+                    <a:tabLst/>
                     <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
+                        <a:sysClr val="windowText" lastClr="000000">
                           <a:lumMod val="65000"/>
                           <a:lumOff val="35000"/>
-                        </a:schemeClr>
+                        </a:sysClr>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -19971,8 +20441,15 @@
                     </a:defRPr>
                   </a:pPr>
                   <a:r>
-                    <a:rPr lang="pl-PL"/>
-                    <a:t>milionów</a:t>
+                    <a:rPr lang="pl-PL" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:sysClr>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>tysięcy</a:t>
                   </a:r>
                 </a:p>
               </c:rich>
@@ -19988,13 +20465,27 @@
               <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      </a:sysClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -20536,8 +21027,10 @@
       <c:valAx>
         <c:axId val="1636049024"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
           <c:max val="1000000"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -20650,7 +21143,6 @@
         <c:crossAx val="1636046144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="100000"/>
         <c:dispUnits>
           <c:builtInUnit val="thousands"/>
           <c:dispUnitsLbl>
@@ -20712,7 +21204,10 @@
       <c:valAx>
         <c:axId val="1636046144"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="3000000000"/>
+          <c:min val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -20826,20 +21321,34 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
-          <c:builtInUnit val="millions"/>
+          <c:builtInUnit val="thousands"/>
           <c:dispUnitsLbl>
             <c:tx>
               <c:rich>
                 <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
                 <a:lstStyle/>
                 <a:p>
-                  <a:pPr>
+                  <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                    <a:lnSpc>
+                      <a:spcPct val="100000"/>
+                    </a:lnSpc>
+                    <a:spcBef>
+                      <a:spcPts val="0"/>
+                    </a:spcBef>
+                    <a:spcAft>
+                      <a:spcPts val="0"/>
+                    </a:spcAft>
+                    <a:buClrTx/>
+                    <a:buSzTx/>
+                    <a:buFontTx/>
+                    <a:buNone/>
+                    <a:tabLst/>
                     <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
+                        <a:sysClr val="windowText" lastClr="000000">
                           <a:lumMod val="65000"/>
                           <a:lumOff val="35000"/>
-                        </a:schemeClr>
+                        </a:sysClr>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -20847,8 +21356,15 @@
                     </a:defRPr>
                   </a:pPr>
                   <a:r>
-                    <a:rPr lang="pl-PL"/>
-                    <a:t>milionów</a:t>
+                    <a:rPr lang="pl-PL" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:sysClr>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>tysięcy</a:t>
                   </a:r>
                 </a:p>
               </c:rich>
@@ -20864,13 +21380,27 @@
               <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      </a:sysClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -33185,8 +33715,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1885388" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -33344,7 +33874,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -33427,8 +33957,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1885388" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -33586,7 +34116,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -33669,8 +34199,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1916422" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -33852,7 +34382,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -33935,8 +34465,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1873205" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10">
@@ -34114,7 +34644,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10">
@@ -34210,8 +34740,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1916422" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11">
@@ -34393,7 +34923,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11">
@@ -34476,8 +35006,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1916422" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12">
@@ -34659,7 +35189,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12">
@@ -34742,8 +35272,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1916422" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13">
@@ -34925,7 +35455,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13">
@@ -35008,8 +35538,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1916422" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14">
@@ -35191,7 +35721,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14">
@@ -36059,8 +36589,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1781321" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="63" name="TextBox 62">
@@ -36102,7 +36632,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:r>
@@ -36240,7 +36769,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="63" name="TextBox 62">
@@ -36334,8 +36863,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1781321" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -36377,7 +36906,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:r>
@@ -36515,7 +37043,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -36609,8 +37137,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2541913" cy="177228"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -36716,7 +37244,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -36799,8 +37327,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2541914" cy="177228"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -36906,7 +37434,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -36989,8 +37517,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2385718" cy="177228"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -37096,7 +37624,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -37179,8 +37707,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1703223" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -37222,7 +37750,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:r>
@@ -37360,7 +37887,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -37454,8 +37981,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1781321" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -37497,7 +38024,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:r>
@@ -37635,7 +38161,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -37729,8 +38255,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1703223" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -37772,7 +38298,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:r>
@@ -37910,7 +38435,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -38456,8 +38981,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1781321" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -38499,7 +39024,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:r>
@@ -38637,7 +39161,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -38731,8 +39255,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1781321" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -38774,7 +39298,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:r>
@@ -38912,7 +39435,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -39006,8 +39529,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1781321" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -39049,7 +39572,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:r>
@@ -39187,7 +39709,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -39281,8 +39803,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1781321" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -39324,7 +39846,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:r>
@@ -39462,7 +39983,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -39556,8 +40077,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1781321" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -39599,7 +40120,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:r>
@@ -39737,7 +40257,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -39831,8 +40351,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1781321" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -39874,7 +40394,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:r>
@@ -40012,7 +40531,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -40106,8 +40625,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1781321" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -40149,7 +40668,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:r>
@@ -40287,7 +40805,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -40381,8 +40899,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1625125" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -40424,7 +40942,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:r>
@@ -40562,7 +41079,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -41603,8 +42120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165D5A59-9450-4610-9DE8-DF67B38708DF}">
   <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72:F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -42378,8 +42895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B55AE8B-3D6B-4FB0-8B84-BB29D9E9C222}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L61" sqref="L61"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -43136,14 +43653,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="K1:R1"/>
+    <mergeCell ref="K2:Q2"/>
+    <mergeCell ref="R2:R3"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="K1:R1"/>
-    <mergeCell ref="K2:Q2"/>
-    <mergeCell ref="R2:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -43154,8 +43671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8A7CD7-FD86-466D-A724-944D7AD23FA0}">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L58" sqref="L57:L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -43933,8 +44450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10BAD031-D1DE-4572-BC03-8E4F52D89F47}">
   <dimension ref="A2:S24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AD91" sqref="AD91"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="AJ53" sqref="AJ53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
